--- a/LuaFramework_UGUI-master/Assets/Excel/User.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/User.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,7 +491,7 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -510,8 +522,11 @@
       <c r="J1" t="s">
         <v>14</v>
       </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -542,8 +557,11 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -574,8 +592,11 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -606,8 +627,11 @@
       <c r="J6">
         <v>10</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -638,8 +662,11 @@
       <c r="J7">
         <v>10</v>
       </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -669,6 +696,9 @@
       </c>
       <c r="J8">
         <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
